--- a/valuation/valuation-english.xlsx
+++ b/valuation/valuation-english.xlsx
@@ -125,18 +125,12 @@
     <t>There is a series of colored drawings. The pictures are set in a courtroom. There is an American flag in one of the pictures.</t>
   </si>
   <si>
-    <t>man in a black shirt with short hair is installing or adjusting a metal panel on the underside of an aircraft. Frontal and close-up photo of the man.</t>
-  </si>
-  <si>
     <t>There is a man wearing glasses and jeans being interviewed. He has a handgun tucked into the back of his pants. The gun is clearly visible in the photo and he is making a gesture of putting his hand in his pocket.</t>
   </si>
   <si>
     <t>A white bull model on a float in a festival. Smoke is coming out of the bull's nostrils.</t>
   </si>
   <si>
-    <t>white-haired man stepped out, holding a black-framed glass door in his hand. In front of him was a multicolored flag, including red, yellow, and green. Several microphones were raised near the man. Among them was a green microphone. A close-up of the man's face.</t>
-  </si>
-  <si>
     <t>A flower field. There is a man in a white shirt and a green hat digging the ground. A man standing and taking a picture of a man sitting.</t>
   </si>
   <si>
@@ -306,6 +300,12 @@
   </si>
   <si>
     <t>Scene of Christmas in a European city. There are decorative lights above the streets between the buildings. There are decorative lights in the shape of fish, cubes with a red gem in the middle. There is an image of a Christmas tree with many lights wrapped around it.</t>
+  </si>
+  <si>
+    <t>Man in a black shirt with short hair is installing or adjusting a metal panel on the underside of an aircraft. Frontal and close-up photo of the man.</t>
+  </si>
+  <si>
+    <t>White-haired man stepped out, holding a black-framed glass door in his hand. In front of him was a multicolored flag, including red, yellow, and green. Several microphones were raised near the man. Among them was a green microphone. A close-up of the man's face.</t>
   </si>
 </sst>
 </file>
@@ -659,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -670,7 +670,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -685,12 +685,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
@@ -700,7 +700,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
@@ -715,7 +715,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
@@ -730,12 +730,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
@@ -750,7 +750,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
@@ -775,7 +775,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
@@ -795,7 +795,7 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
@@ -805,7 +805,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
@@ -890,82 +890,82 @@
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
@@ -975,172 +975,172 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
